--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="明细" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="限时总览" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="明细" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="限时总览" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,12 +27,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+        <bgColor rgb="00DDDDDD"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -56,12 +62,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFF176"/>
         <bgColor rgb="00FFF176"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDDDDD"/>
-        <bgColor rgb="00DDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -96,6 +96,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="004DB6AC"/>
+        <bgColor rgb="004DB6AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7D0A"/>
+        <bgColor rgb="00FF7D0A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A330C9"/>
+        <bgColor rgb="00A330C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000070DE"/>
+        <bgColor rgb="000070DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C79C6E"/>
         <bgColor rgb="00C79C6E"/>
       </patternFill>
@@ -108,20 +132,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C41F3B"/>
+        <bgColor rgb="00C41F3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069CCF0"/>
+        <bgColor rgb="0069CCF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFF569"/>
         <bgColor rgb="00FFF569"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C41F3B"/>
-        <bgColor rgb="00C41F3B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0069CCF0"/>
-        <bgColor rgb="0069CCF0"/>
+        <fgColor rgb="00ABD473"/>
+        <bgColor rgb="00ABD473"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,15 +173,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -157,13 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -172,10 +217,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -184,7 +235,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,17 +659,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -625,37 +679,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -665,37 +719,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -705,37 +759,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23:39</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -745,37 +799,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -785,11 +839,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35:57</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -798,24 +852,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>+8*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -825,37 +879,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20:22</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -865,37 +919,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -905,37 +959,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -965,17 +1019,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1005,17 +1059,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1045,17 +1099,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1085,17 +1139,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1125,17 +1179,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1165,17 +1219,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1205,17 +1259,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1245,17 +1299,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1265,11 +1319,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25:54</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1278,24 +1332,24 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1305,11 +1359,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30:25</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1318,24 +1372,24 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1345,37 +1399,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>41:59</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>+14*</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1385,11 +1439,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31:34</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1398,24 +1452,24 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1425,37 +1479,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>31:28</t>
+          <t>35:57</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+8*</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1465,11 +1519,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25:01</t>
+          <t>20:22</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1478,24 +1532,24 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1505,11 +1559,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31:20</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1518,24 +1572,24 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1545,11 +1599,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27:24</t>
+          <t>20:01</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1558,24 +1612,24 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1605,17 +1659,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1645,17 +1699,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1685,17 +1739,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1725,17 +1779,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1765,17 +1819,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1805,17 +1859,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1845,17 +1899,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1885,17 +1939,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1905,37 +1959,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>30:01</t>
+          <t>25:54</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>+10*</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1945,11 +1999,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24:57</t>
+          <t>30:25</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1958,24 +2012,24 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1985,11 +2039,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27:28</t>
+          <t>30:05</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1998,24 +2052,24 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2025,11 +2079,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>26:31</t>
+          <t>31:34</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2038,24 +2092,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2065,11 +2119,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31:39</t>
+          <t>31:28</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2078,24 +2132,24 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2105,11 +2159,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>25:26</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2118,24 +2172,24 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2145,11 +2199,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>24:07</t>
+          <t>34:45</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2158,24 +2212,24 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2185,11 +2239,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>24:41</t>
+          <t>25:46</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2198,24 +2252,24 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2225,37 +2279,37 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:54</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2265,37 +2319,37 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>30:25</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2305,11 +2359,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>41:59</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v/>
+        <v>14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2318,24 +2372,24 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+14*</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2345,37 +2399,37 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:34</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2385,37 +2439,37 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:28</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2425,37 +2479,37 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:01</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2465,37 +2519,37 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:20</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2505,37 +2559,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>27:24</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2565,17 +2619,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2605,17 +2659,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2645,17 +2699,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2685,17 +2739,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2725,17 +2779,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2765,17 +2819,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2805,17 +2859,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2845,17 +2899,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2865,7 +2919,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>26:55</t>
+          <t>30:01</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2873,29 +2927,29 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+10*</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2925,17 +2979,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2945,11 +2999,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>25:50</t>
+          <t>27:28</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2958,24 +3012,24 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3005,17 +3059,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3025,11 +3079,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>31:39</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3038,24 +3092,24 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3085,17 +3139,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3125,17 +3179,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3159,6 +3213,2886 @@
       <c r="H65" t="inlineStr">
         <is>
           <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v/>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v/>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v/>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v/>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v/>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v/>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v/>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v/>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v/>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v/>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v/>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v/>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v/>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v/>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v/>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v/>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26:55</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24:57</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25:50</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>26:31</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24:07</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24:41</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v/>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v/>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v/>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v/>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v/>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v/>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v/>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v/>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v/>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v/>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v/>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v/>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v/>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v/>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v/>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v/>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v/>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v/>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21:40</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>6</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31:27</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>9</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>36:36</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>7</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+7*</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v/>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v/>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v/>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v/>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v/>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v/>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v/>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v/>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v/>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v/>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>30:01</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>24:57</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>11</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25:51</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>11</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>28:12</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>31:39</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>10</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>25:28</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>24:10</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v/>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v/>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v/>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v/>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v/>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v/>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3173,7 +6107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3236,97 +6170,97 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>+8*</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="J2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>邀月</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>邪能肖战</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3335,306 +6269,756 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>段总</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>生锈的斩牛刀</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>+8*</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="I4" s="11" t="inlineStr">
+      <c r="I7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>+14*</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>飞翔的潼瑜</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>统皇</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>本间芽衣芓</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="F6" s="15" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="H6" s="15" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>焦糖扁可颂</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B10" s="17" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="G10" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="J10" s="18" t="inlineStr">
+        <is>
+          <t>+14*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H12" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="J12" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>舒总</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>Fountine</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="F8" s="15" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="H8" s="15" t="inlineStr">
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I14" s="10" t="inlineStr">
         <is>
           <t>+10*</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="13" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>天灵浴血</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F17" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J17" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="21" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>+7*</t>
+        </is>
+      </c>
+      <c r="F18" s="22" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -27,12 +27,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AED581"/>
+        <bgColor rgb="00AED581"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081C784"/>
+        <bgColor rgb="0081C784"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCE775"/>
+        <bgColor rgb="00DCE775"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF176"/>
+        <bgColor rgb="00FFF176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+        <bgColor rgb="00DDDDDD"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -54,8 +84,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="004DD0E1"/>
+        <bgColor rgb="004DD0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD54F"/>
+        <bgColor rgb="00FFD54F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C79C6E"/>
+        <bgColor rgb="00C79C6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F58CBA"/>
+        <bgColor rgb="00F58CBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFF569"/>
         <bgColor rgb="00FFF569"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C41F3B"/>
+        <bgColor rgb="00C41F3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069CCF0"/>
+        <bgColor rgb="0069CCF0"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,12 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -86,6 +152,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,17 +605,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -526,11 +625,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25:54</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -539,24 +638,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -566,11 +665,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30:25</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -579,24 +678,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,37 +705,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>41:59</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>+14*</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -646,11 +745,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31:34</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -659,24 +758,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -686,37 +785,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31:28</t>
+          <t>35:57</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+8*</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -726,11 +825,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25:01</t>
+          <t>20:22</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -739,24 +838,24 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -766,11 +865,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31:20</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -779,47 +878,2287 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>段总</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>生锈的斩牛刀</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>伊森利恩</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25:54</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30:25</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>13</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>41:59</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+14*</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31:34</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31:28</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>13</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25:01</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>13</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31:20</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>破晨号</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>27:24</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F25" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v/>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v/>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v/>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v/>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>伊森利恩</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v/>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30:01</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24:57</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>11</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27:28</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26:31</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31:39</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24:07</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24:41</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>11</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v/>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v/>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v/>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v/>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v/>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v/>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v/>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v/>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v/>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v/>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v/>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v/>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26:55</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24:57</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>11</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25:50</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26:31</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24:07</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24:41</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+11</t>
         </is>
       </c>
     </row>
@@ -834,7 +3173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,56 +3236,406 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>+8*</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="J2" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>段总</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>生锈的斩牛刀</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I4" s="11" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J4" s="12" t="inlineStr">
         <is>
           <t>+14*</t>
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H6" s="15" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H8" s="15" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -27,12 +27,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+        <bgColor rgb="00DDDDDD"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -56,12 +62,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFF176"/>
         <bgColor rgb="00FFF176"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDDDDD"/>
-        <bgColor rgb="00DDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -96,6 +96,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="004DB6AC"/>
+        <bgColor rgb="004DB6AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7D0A"/>
+        <bgColor rgb="00FF7D0A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A330C9"/>
+        <bgColor rgb="00A330C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000070DE"/>
+        <bgColor rgb="000070DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C79C6E"/>
         <bgColor rgb="00C79C6E"/>
       </patternFill>
@@ -108,20 +132,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C41F3B"/>
+        <bgColor rgb="00C41F3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069CCF0"/>
+        <bgColor rgb="0069CCF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFF569"/>
         <bgColor rgb="00FFF569"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C41F3B"/>
-        <bgColor rgb="00C41F3B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0069CCF0"/>
-        <bgColor rgb="0069CCF0"/>
+        <fgColor rgb="00ABD473"/>
+        <bgColor rgb="00ABD473"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,15 +173,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -157,13 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -172,10 +217,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -184,7 +235,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,17 +659,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -625,37 +679,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -665,37 +719,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -705,37 +759,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23:39</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -745,37 +799,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -785,11 +839,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35:57</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -798,24 +852,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>+8*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -825,37 +879,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20:22</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -865,37 +919,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -905,37 +959,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -965,17 +1019,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1005,17 +1059,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1045,17 +1099,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1085,17 +1139,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1125,17 +1179,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1165,17 +1219,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1205,17 +1259,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1245,17 +1299,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1265,11 +1319,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25:54</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1278,24 +1332,24 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1305,11 +1359,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30:25</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1318,24 +1372,24 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1345,37 +1399,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>41:59</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>+14*</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1385,11 +1439,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31:34</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1398,24 +1452,24 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1425,37 +1479,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>31:28</t>
+          <t>35:57</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+8*</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1465,11 +1519,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25:01</t>
+          <t>20:22</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1478,24 +1532,24 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1505,11 +1559,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31:20</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1518,24 +1572,24 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1545,11 +1599,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27:24</t>
+          <t>20:01</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1558,24 +1612,24 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1605,17 +1659,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1645,17 +1699,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1685,17 +1739,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1725,17 +1779,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1765,17 +1819,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1805,17 +1859,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1845,17 +1899,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1885,17 +1939,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1905,37 +1959,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>30:01</t>
+          <t>25:54</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>+10*</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1945,11 +1999,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24:57</t>
+          <t>30:25</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1958,24 +2012,24 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1985,11 +2039,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27:28</t>
+          <t>30:05</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1998,24 +2052,24 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2025,11 +2079,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>26:31</t>
+          <t>31:34</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2038,24 +2092,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2065,11 +2119,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31:39</t>
+          <t>31:28</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2078,24 +2132,24 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2105,11 +2159,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>25:26</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2118,24 +2172,24 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2145,11 +2199,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>24:07</t>
+          <t>34:45</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2158,24 +2212,24 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2185,11 +2239,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>24:41</t>
+          <t>25:46</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2198,24 +2252,24 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2225,37 +2279,37 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:54</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2265,37 +2319,37 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>30:25</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2305,11 +2359,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>41:59</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v/>
+        <v>14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2318,24 +2372,24 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+14*</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2345,37 +2399,37 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:34</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2385,37 +2439,37 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:28</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2425,37 +2479,37 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:01</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2465,37 +2519,37 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:20</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2505,37 +2559,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>27:24</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2565,17 +2619,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2605,17 +2659,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2645,17 +2699,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2685,17 +2739,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2725,17 +2779,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2765,17 +2819,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2805,17 +2859,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2845,17 +2899,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2865,7 +2919,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>26:55</t>
+          <t>30:01</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2873,29 +2927,29 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+10*</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2925,17 +2979,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2945,11 +2999,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>25:50</t>
+          <t>27:28</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2958,24 +3012,24 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3005,17 +3059,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3025,11 +3079,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>31:39</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3038,24 +3092,24 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3085,17 +3139,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3125,17 +3179,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3159,6 +3213,2886 @@
       <c r="H65" t="inlineStr">
         <is>
           <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v/>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v/>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v/>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v/>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v/>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v/>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v/>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺兹多姆</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v/>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v/>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v/>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v/>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v/>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v/>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v/>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v/>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v/>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26:55</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24:57</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25:50</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>26:31</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24:07</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24:41</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v/>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v/>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v/>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v/>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v/>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v/>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v/>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>影之哀伤</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v/>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v/>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v/>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v/>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v/>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v/>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v/>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v/>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>回音山</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v/>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v/>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v/>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21:40</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>6</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31:27</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>9</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>36:36</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>7</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+7*</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v/>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v/>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v/>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v/>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v/>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v/>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v/>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v/>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v/>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v/>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>30:01</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>24:57</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>11</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25:51</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>11</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>28:12</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>31:39</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>10</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>25:28</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>神圣之歌</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>24:10</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v/>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v/>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v/>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v/>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v/>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v/>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3173,7 +6107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3236,97 +6170,97 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>+8*</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="J2" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>邀月</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>邪能肖战</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3335,306 +6269,756 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>段总</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>生锈的斩牛刀</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>+8*</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="I4" s="11" t="inlineStr">
+      <c r="I7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>+14*</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>飞翔的潼瑜</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>统皇</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>本间芽衣芓</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="F6" s="15" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="H6" s="15" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>焦糖扁可颂</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>捷教授</t>
+        </is>
+      </c>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t>四个自信</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B10" s="17" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="G10" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="J10" s="18" t="inlineStr">
+        <is>
+          <t>+14*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H12" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="J12" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>舒总</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>Fountine</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="F8" s="15" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="H8" s="15" t="inlineStr">
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I14" s="10" t="inlineStr">
         <is>
           <t>+10*</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="13" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>天灵浴血</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>蔡圣</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>亚妮艾丝</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F17" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J17" s="20" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="21" t="inlineStr">
+        <is>
+          <t>莱恩弗尔特</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>+7*</t>
+        </is>
+      </c>
+      <c r="F18" s="22" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill/>
     </fill>
@@ -54,14 +54,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCE775"/>
-        <bgColor rgb="00DCE775"/>
+        <fgColor rgb="00FFD54F"/>
+        <bgColor rgb="00FFD54F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFF176"/>
         <bgColor rgb="00FFF176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCE775"/>
+        <bgColor rgb="00DCE775"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,18 +86,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F48FB1"/>
         <bgColor rgb="00F48FB1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004DD0E1"/>
-        <bgColor rgb="004DD0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD54F"/>
-        <bgColor rgb="00FFD54F"/>
       </patternFill>
     </fill>
     <fill>
@@ -173,24 +167,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -205,16 +199,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -223,22 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,11 +1510,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20:22</t>
+          <t>24:24</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1532,7 +1523,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
@@ -2399,11 +2390,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>31:34</t>
+          <t>27:41</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2412,7 +2403,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
@@ -2559,11 +2550,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>27:24</t>
+          <t>28:30</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2572,7 +2563,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
@@ -3119,11 +3110,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>22:09</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3132,7 +3123,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3990,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>26:31</t>
+          <t>22:06</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4039,11 +4030,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4052,7 +4043,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
@@ -4079,11 +4070,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>22:09</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4092,7 +4083,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4110,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>24:07</t>
+          <t>23:48</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -5599,11 +5590,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>28:12</t>
+          <t>29:21</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -5612,7 +5603,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5630,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>31:39</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -5679,7 +5670,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -5719,11 +5710,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>25:28</t>
+          <t>29:32</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5732,7 +5723,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
@@ -6341,37 +6332,37 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="inlineStr">
+        <is>
           <t>+9</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="J5" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>邀月</t>
         </is>
@@ -6418,47 +6409,47 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>黑魔仙豹哥</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="E7" s="14" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="F7" s="13" t="inlineStr">
+      <c r="F7" s="14" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="G7" s="14" t="inlineStr">
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="H7" s="14" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="I7" s="14" t="inlineStr">
+      <c r="I7" s="15" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="J7" s="14" t="inlineStr">
+      <c r="J7" s="15" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
@@ -6470,7 +6461,7 @@
           <t>巨奶</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>傻瓜观测</t>
         </is>
@@ -6522,7 +6513,7 @@
           <t>捷教授</t>
         </is>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="17" t="inlineStr">
         <is>
           <t>四个自信</t>
         </is>
@@ -6574,54 +6565,54 @@
           <t>段总</t>
         </is>
       </c>
-      <c r="B10" s="17" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>生锈的斩牛刀</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="F10" s="13" t="inlineStr">
+      <c r="F10" s="14" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
       <c r="G10" s="14" t="inlineStr">
         <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
-      </c>
-      <c r="I10" s="14" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
-      </c>
-      <c r="J10" s="18" t="inlineStr">
+      <c r="J10" s="19" t="inlineStr">
         <is>
           <t>+14*</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="13" t="inlineStr">
         <is>
           <t>飞翔的潼瑜</t>
         </is>
@@ -6678,9 +6669,9 @@
           <t>本间芽衣芓</t>
         </is>
       </c>
-      <c r="C12" s="19" t="inlineStr">
-        <is>
-          <t>+5</t>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>+10</t>
         </is>
       </c>
       <c r="D12" s="10" t="inlineStr">
@@ -6688,39 +6679,39 @@
           <t>+10</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="F12" s="20" t="inlineStr">
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="I12" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="H12" s="20" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="J12" s="9" t="inlineStr">
+      <c r="J12" s="11" t="inlineStr">
         <is>
           <t>+9</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>焦糖扁可颂</t>
         </is>
@@ -6772,7 +6763,7 @@
           <t>舒总</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="17" t="inlineStr">
         <is>
           <t>Fountine</t>
         </is>
@@ -6787,39 +6778,39 @@
           <t>+10</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="F14" s="20" t="inlineStr">
+      <c r="H14" s="9" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="G14" s="10" t="inlineStr">
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J14" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="H14" s="20" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="inlineStr">
-        <is>
-          <t>+10*</t>
-        </is>
-      </c>
-      <c r="J14" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="13" t="inlineStr">
         <is>
           <t>天灵浴血</t>
         </is>
@@ -6871,7 +6862,7 @@
           <t>蔡圣</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>亚妮艾丝</t>
         </is>
@@ -6928,49 +6919,49 @@
           <t>+10</t>
         </is>
       </c>
-      <c r="D17" s="10" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="E17" s="10" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G17" s="14" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H17" s="10" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="F17" s="20" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J17" s="9" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="G17" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="H17" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="inlineStr">
-        <is>
-          <t>+10*</t>
-        </is>
-      </c>
-      <c r="J17" s="20" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="B18" s="21" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>莱恩弗尔特</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>+9</t>
         </is>
@@ -6985,12 +6976,12 @@
           <t>+7*</t>
         </is>
       </c>
-      <c r="F18" s="22" t="inlineStr">
+      <c r="F18" s="21" t="inlineStr">
         <is>
           <t>+6</t>
         </is>
       </c>
-      <c r="G18" s="22" t="inlineStr">
+      <c r="G18" s="21" t="inlineStr">
         <is>
           <t>+6</t>
         </is>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -2190,11 +2190,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>34:45</t>
+          <t>32:12</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>29:32</t>
+          <t>28:11</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6419,9 +6419,9 @@
           <t>+13</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>+12</t>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>+13</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,17 +1290,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1310,37 +1310,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1350,37 +1350,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1390,37 +1390,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23:39</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1430,37 +1430,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>35:57</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1483,24 +1483,24 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>+8*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1510,37 +1510,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24:24</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1550,37 +1550,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>元神</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>阿瘫</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>霜之哀伤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1590,20 +1590,20 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1615,12 +1615,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1630,20 +1630,20 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1670,20 +1670,20 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1710,20 +1710,20 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>23:39</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1750,20 +1750,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
@@ -1775,12 +1775,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>35:57</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+8*</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1830,20 +1830,20 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:24</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1870,20 +1870,20 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>21:34</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+7</t>
         </is>
       </c>
     </row>
@@ -1895,12 +1895,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>体育老师</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>通灵学院</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1910,20 +1910,20 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>20:01</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
@@ -1935,12 +1935,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1950,20 +1950,20 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25:54</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1990,20 +1990,20 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>30:25</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2015,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2030,20 +2030,20 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>30:05</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2070,20 +2070,20 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>31:34</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2110,20 +2110,20 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31:28</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2150,20 +2150,20 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>25:26</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2190,20 +2190,20 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>32:12</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>邀月</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>丽丽（四川）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2230,37 +2230,37 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25:46</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2290,17 +2290,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2330,17 +2330,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2350,37 +2350,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>41:59</t>
+          <t>30:05</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>+14*</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2390,11 +2390,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>27:41</t>
+          <t>31:34</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2403,24 +2403,24 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2450,17 +2450,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2470,11 +2470,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25:01</t>
+          <t>25:26</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2483,24 +2483,24 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>31:20</t>
+          <t>32:12</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2530,17 +2530,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>吴工</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>黑魔仙豹哥</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>死亡之翼</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2550,11 +2550,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>28:30</t>
+          <t>25:46</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2563,24 +2563,24 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2610,17 +2610,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2690,17 +2690,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2730,17 +2730,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2770,17 +2770,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2810,17 +2810,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2850,17 +2850,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2890,17 +2890,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2910,11 +2910,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>30:01</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2923,24 +2923,24 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>+10*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2950,37 +2950,37 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>24:57</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2990,37 +2990,37 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>27:28</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3030,37 +3030,37 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>26:31</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3070,37 +3070,37 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>31:39</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3110,37 +3110,37 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>22:09</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3150,37 +3150,37 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>24:07</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>捷教授</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>四个自信</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3190,37 +3190,37 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>24:41</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3230,37 +3230,37 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:54</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3270,37 +3270,37 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>30:25</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3310,11 +3310,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>41:59</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v/>
+        <v>14</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3323,24 +3323,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+14*</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3350,37 +3350,37 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>27:41</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3390,37 +3390,37 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:28</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3430,37 +3430,37 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:01</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3470,37 +3470,37 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:20</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>舒总</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3510,37 +3510,37 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>28:30</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3570,17 +3570,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3610,17 +3610,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3650,17 +3650,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3690,17 +3690,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3770,17 +3770,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3810,17 +3810,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3870,20 +3870,20 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>26:55</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3910,20 +3910,20 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>24:57</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3950,20 +3950,20 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>25:50</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3990,20 +3990,20 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>22:06</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4030,20 +4030,20 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>22:03</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4070,20 +4070,20 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>22:09</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4110,20 +4110,20 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>23:48</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4150,37 +4150,37 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>24:41</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4190,37 +4190,37 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>26:55</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4230,37 +4230,37 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:57</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4270,37 +4270,37 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:50</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4310,37 +4310,37 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:06</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4350,37 +4350,37 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4390,37 +4390,37 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:09</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4430,37 +4430,37 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>23:48</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4470,37 +4470,37 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:41</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4510,11 +4510,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>30:01</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4523,24 +4523,24 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10*</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4550,37 +4550,37 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:57</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4590,37 +4590,37 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>27:28</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4630,37 +4630,37 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>26:31</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4670,37 +4670,37 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:39</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4710,37 +4710,37 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:09</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4750,37 +4750,37 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:07</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>捷教授</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>四个自信</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4790,37 +4790,37 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:41</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4850,17 +4850,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4870,37 +4870,37 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>20:19</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4930,17 +4930,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4950,37 +4950,37 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>21:40</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4990,37 +4990,37 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>31:27</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5030,11 +5030,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>36:36</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5043,24 +5043,24 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>+7*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5090,17 +5090,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5190,20 +5190,20 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>20:19</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+6</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5270,20 +5270,20 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>21:40</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+6</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5310,20 +5310,20 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:27</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5350,11 +5350,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>36:36</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+7*</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5470,11 +5470,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>30:01</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>+10*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5510,20 +5510,20 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>24:57</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5550,20 +5550,20 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>25:51</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5590,20 +5590,20 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>29:21</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5630,20 +5630,20 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>22:03</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5670,20 +5670,20 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5710,20 +5710,20 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>28:11</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>亚里欧斯</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5750,338 +5750,18 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>24:10</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>艾拉-卡拉，回响之城</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v/>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>奥尔达尼生态圆顶</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v/>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>赎罪大厅</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v/>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>水闸行动</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v/>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>圣焰隐修院</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v/>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>塔扎维什: 索·莉亚的宏图</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v/>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>塔扎维什: 琳彩天街</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v/>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>元神</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>阿瘫</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>霜之哀伤</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>破晨号</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v/>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6098,7 +5778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6909,94 +6589,47 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>亚里欧斯</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="G17" s="14" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="H17" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="inlineStr">
-        <is>
-          <t>+10*</t>
-        </is>
-      </c>
-      <c r="J17" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="20" t="inlineStr">
+      <c r="B17" s="20" t="inlineStr">
         <is>
           <t>莱恩弗尔特</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>+9</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>+7*</t>
         </is>
       </c>
-      <c r="F18" s="21" t="inlineStr">
+      <c r="F17" s="21" t="inlineStr">
         <is>
           <t>+6</t>
         </is>
       </c>
-      <c r="G18" s="21" t="inlineStr">
+      <c r="G17" s="21" t="inlineStr">
         <is>
           <t>+6</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7005,9 +6638,9 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill/>
     </fill>
@@ -84,8 +84,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F06292"/>
+        <bgColor rgb="00F06292"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F48FB1"/>
         <bgColor rgb="00F48FB1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004DD0E1"/>
+        <bgColor rgb="004DD0E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -108,18 +120,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070DE"/>
-        <bgColor rgb="000070DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C79C6E"/>
-        <bgColor rgb="00C79C6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F58CBA"/>
         <bgColor rgb="00F58CBA"/>
       </patternFill>
@@ -128,6 +128,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C41F3B"/>
         <bgColor rgb="00C41F3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000070DE"/>
+        <bgColor rgb="000070DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABD473"/>
+        <bgColor rgb="00ABD473"/>
       </patternFill>
     </fill>
     <fill>
@@ -144,14 +156,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF569"/>
-        <bgColor rgb="00FFF569"/>
+        <fgColor rgb="00C79C6E"/>
+        <bgColor rgb="00C79C6E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ABD473"/>
-        <bgColor rgb="00ABD473"/>
+        <fgColor rgb="00FFF569"/>
+        <bgColor rgb="00FFF569"/>
       </patternFill>
     </fill>
   </fills>
@@ -167,24 +179,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -202,19 +211,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -226,10 +232,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,17 +668,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -690,17 +708,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -710,37 +728,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>20:19</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -770,17 +788,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -790,37 +808,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>21:40</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -830,37 +848,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:27</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -870,11 +888,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>36:36</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -883,24 +901,24 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+7*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -930,17 +948,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>嘭地一声</t>
+          <t>莱恩弗尔特</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -970,17 +988,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1010,17 +1028,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1050,17 +1068,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1090,17 +1108,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1130,17 +1148,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1170,17 +1188,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1210,17 +1228,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1250,17 +1268,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>亮仔</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>邪能肖战</t>
+          <t>亚妮艾丝</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>回音山</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1290,17 +1308,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1310,11 +1328,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>30:01</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1323,24 +1341,24 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10*</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1350,37 +1368,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:57</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1390,37 +1408,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>25:51</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1430,37 +1448,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>29:21</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1470,37 +1488,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1510,37 +1528,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1550,37 +1568,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>28:11</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>元神</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>阿瘫</t>
+          <t>亚里欧斯</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>霜之哀伤</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1590,37 +1608,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:10</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1630,11 +1648,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>27:49</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1643,24 +1661,24 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1670,7 +1688,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>20:16</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1690,17 +1708,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1710,7 +1728,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>23:39</t>
+          <t>23:04</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1730,17 +1748,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1750,7 +1768,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>24:23</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1770,17 +1788,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1790,37 +1808,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>35:57</t>
+          <t>27:31</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>+8*</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1830,7 +1848,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>24:24</t>
+          <t>22:09</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1850,17 +1868,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1870,37 +1888,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>21:34</t>
+          <t>46:27</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>+7</t>
+          <t>+11*</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>体育老师</t>
+          <t>伊格瑞特</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>通灵学院</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1910,11 +1928,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>20:53</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1923,24 +1941,24 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>+7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1950,37 +1968,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>20:19</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2010,17 +2028,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2030,37 +2048,37 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>28:07</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2070,37 +2088,37 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:03</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2130,17 +2148,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2150,37 +2168,37 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2190,37 +2208,37 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:07</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>蔡圣</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>邀月</t>
+          <t>萨里西翁</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>丽丽（四川）</t>
+          <t>神圣之歌</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2230,37 +2248,37 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:41</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2270,11 +2288,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25:54</t>
+          <t>28:20</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2283,24 +2301,24 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2330,17 +2348,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2350,37 +2368,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>30:05</t>
+          <t>41:59</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+14*</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2390,11 +2408,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>31:34</t>
+          <t>27:41</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2403,24 +2421,24 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2450,17 +2468,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2470,11 +2488,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25:26</t>
+          <t>25:01</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2483,24 +2501,24 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2510,7 +2528,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>32:12</t>
+          <t>31:20</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2530,17 +2548,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>吴工</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>黑魔仙豹哥</t>
+          <t>生锈的斩牛刀</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>死亡之翼</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2550,11 +2568,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>25:46</t>
+          <t>28:30</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2563,24 +2581,24 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>+13</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2610,17 +2628,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2650,17 +2668,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2690,17 +2708,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2730,17 +2748,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2770,17 +2788,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2810,17 +2828,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2850,17 +2868,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>巨奶</t>
+          <t>段总</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>傻瓜观测</t>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>影之哀伤</t>
+          <t>伊森利恩</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3210,17 +3228,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3230,37 +3248,37 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>25:54</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>+12</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3270,37 +3288,37 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>30:25</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3310,11 +3328,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>41:59</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3323,24 +3341,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>+14*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3350,37 +3368,37 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>27:41</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3390,37 +3408,37 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>31:28</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3430,37 +3448,37 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>25:01</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3470,37 +3488,37 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>31:20</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>巨奶</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>生锈的斩牛刀</t>
+          <t>傻瓜观测</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>影之哀伤</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3510,37 +3528,37 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>28:30</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3570,17 +3588,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3610,17 +3628,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3650,17 +3668,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3690,17 +3708,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3730,17 +3748,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3770,17 +3788,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3810,17 +3828,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>段总</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>飞翔的潼瑜</t>
+          <t>嘭地一声</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>伊森利恩</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3850,17 +3868,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3890,17 +3908,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3930,17 +3948,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3970,17 +3988,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4010,17 +4028,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4050,17 +4068,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4090,17 +4108,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4130,17 +4148,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>亮仔</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>焦糖扁可颂</t>
+          <t>邪能肖战</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>回音山</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4170,17 +4188,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4190,7 +4208,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>26:55</t>
+          <t>30:01</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4198,29 +4216,29 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>+10*</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4250,17 +4268,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4270,11 +4288,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>25:50</t>
+          <t>27:28</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4283,24 +4301,24 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4310,7 +4328,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>22:06</t>
+          <t>26:31</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4330,17 +4348,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4350,7 +4368,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>22:03</t>
+          <t>31:39</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4370,17 +4388,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4410,17 +4428,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4430,7 +4448,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>23:48</t>
+          <t>24:07</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4450,17 +4468,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>统皇</t>
+          <t>舒总</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>本间芽衣芓</t>
+          <t>Fountine</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>斯坦索姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4495,12 +4513,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4510,11 +4528,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>30:01</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4523,7 +4541,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>+10*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4535,12 +4553,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4550,20 +4568,20 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>24:57</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4575,12 +4593,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4590,20 +4608,20 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>27:28</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4615,12 +4633,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4630,20 +4648,20 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>26:31</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4655,12 +4673,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4670,20 +4688,20 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>31:39</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4713,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4710,20 +4728,20 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>22:09</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4735,12 +4753,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4750,20 +4768,20 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>24:07</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>+10</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4793,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fountine</t>
+          <t>天灵浴血</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>图拉扬</t>
+          <t>诺兹多姆</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4790,20 +4808,20 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>24:41</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>+11</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4833,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4830,20 +4848,20 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>29:42</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+7</t>
         </is>
       </c>
     </row>
@@ -4855,12 +4873,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4895,12 +4913,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4935,12 +4953,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4950,20 +4968,20 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>31:03</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4993,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5015,12 +5033,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5030,20 +5048,20 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>21:46</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+9</t>
         </is>
       </c>
     </row>
@@ -5055,12 +5073,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5070,20 +5088,20 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>27:23</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5113,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>天灵浴血</t>
+          <t>霜满天丶</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>诺兹多姆</t>
+          <t>图拉扬</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5110,37 +5128,37 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5170,17 +5188,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5190,37 +5208,37 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>20:19</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5250,17 +5268,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5270,37 +5288,37 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>21:40</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>+6</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5310,37 +5328,37 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>31:27</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>+9</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5350,11 +5368,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>36:36</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5363,24 +5381,24 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>+7*</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5410,17 +5428,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>莱恩弗尔特</t>
+          <t>焦糖扁可颂</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5450,17 +5468,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5470,37 +5488,37 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>26:55</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5510,37 +5528,37 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>24:57</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5550,37 +5568,37 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>28:07</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5590,37 +5608,37 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:06</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5630,37 +5648,37 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5670,37 +5688,37 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>22:09</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+11</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5710,37 +5728,37 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>23:48</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>蔡圣</t>
+          <t>统皇</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>亚妮艾丝</t>
+          <t>本间芽衣芓</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>神圣之歌</t>
+          <t>斯坦索姆</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5750,20 +5768,3220 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
+          <t>24:41</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>11</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>30:40</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21:29</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>25:09</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>27:27</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>12</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>31:39</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>10</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>21:28</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>27:23</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>28:43</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>23:39</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>10</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23:50</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>35:57</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>8</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>+8*</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>24:24</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>11</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>21:34</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>7</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>体育老师</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>通灵学院</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>9</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>未知</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F146" t="n">
         <v/>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v/>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v/>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v/>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v/>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v/>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v/>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>邀月</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>丽丽（四川）</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v/>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>25:54</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>12</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>30:25</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>13</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>30:05</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>12</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>31:34</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>12</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>31:28</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>13</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>25:26</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>12</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>32:12</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>13</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>吴工</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>黑魔仙豹哥</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>死亡之翼</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>25:46</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>12</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v/>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v/>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v/>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v/>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v/>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v/>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v/>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>元神</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>阿瘫</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v/>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>28:31</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>11</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>21:47</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>11</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>31:52</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>13</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>+13*</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>29:21</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>13</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>31:15</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>13</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>25:57</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>13</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>35:04</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>14</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>+14*</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>33:21</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>12</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>+12*</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v/>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v/>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>28:07</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>10</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>31:03</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>10</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>26:49</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>10</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v/>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>26:30</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>10</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>斯坦索姆</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v/>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>29:54</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>13</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>22:36</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>13</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>25:51</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>11</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>29:21</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>13</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>27:31</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>13</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>22:45</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>11</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>31:14</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>11</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>图拉扬</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>28:30</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>14</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>29:54</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>13</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>35:08</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>12</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>+12*</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>31:11</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>11</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>+11*</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>25:09</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>10</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>27:31</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>13</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>11</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>46:27</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>11</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>+11*</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>霜之哀伤</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>28:06</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>10</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>艾拉-卡拉，回响之城</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>25:36</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>15</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>奥尔达尼生态圆顶</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>28:18</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>15</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>赎罪大厅</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>32:34</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>15</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>+15*</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>水闸行动</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>31:28</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>15</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>圣焰隐修院</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>31:26</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>15</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>塔扎维什: 索·莉亚的宏图</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>24:29</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>14</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>塔扎维什: 琳彩天街</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>33:28</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>15</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>米奈希尔</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>破晨号</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>28:30</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>14</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>+14</t>
         </is>
       </c>
     </row>
@@ -5778,7 +8996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5995,54 +9213,54 @@
           <t>吴工</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>体育老师</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>+8*</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>+7</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>+11</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>+9</t>
         </is>
       </c>
-      <c r="I5" s="10" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="J5" s="10" t="inlineStr">
+      <c r="J5" s="9" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>邀月</t>
         </is>
@@ -6089,47 +9307,47 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>黑魔仙豹哥</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>+13</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="I7" s="15" t="inlineStr">
+      <c r="I7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
       </c>
-      <c r="J7" s="15" t="inlineStr">
+      <c r="J7" s="14" t="inlineStr">
         <is>
           <t>+12</t>
         </is>
@@ -6138,22 +9356,22 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>巨奶</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="inlineStr">
-        <is>
-          <t>傻瓜观测</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>屯狗</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>屯屯宝宝</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -6166,9 +9384,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
@@ -6181,120 +9399,120 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>巨奶</t>
+        </is>
+      </c>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t>傻瓜观测</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>天赐祝福</t>
+        </is>
+      </c>
+      <c r="C10" s="17" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+      <c r="D10" s="17" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+      <c r="E10" s="18" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="F10" s="17" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+      <c r="G10" s="17" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+      <c r="H10" s="18" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="I10" s="17" t="inlineStr">
+        <is>
+          <t>+15</t>
+        </is>
+      </c>
+      <c r="J10" s="17" t="inlineStr">
+        <is>
+          <t>+15*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>捷教授</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B11" s="19" t="inlineStr">
         <is>
           <t>四个自信</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>段总</t>
-        </is>
-      </c>
-      <c r="B10" s="18" t="inlineStr">
-        <is>
-          <t>生锈的斩牛刀</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
-      </c>
-      <c r="J10" s="19" t="inlineStr">
-        <is>
-          <t>+14*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -6341,158 +9559,158 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>统皇</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>本间芽衣芓</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
+          <t>昶狂</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>冲锋先看路</t>
+        </is>
+      </c>
+      <c r="C12" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="D12" s="18" t="inlineStr">
+        <is>
+          <t>+14*</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="inlineStr">
+        <is>
+          <t>+12*</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="J12" s="13" t="inlineStr">
+        <is>
+          <t>+13*</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>战复慢点起</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>+11*</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F13" s="14" t="inlineStr">
+        <is>
+          <t>+12*</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="H13" s="9" t="inlineStr">
         <is>
           <t>+10</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="J12" s="11" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="12" t="inlineStr">
-        <is>
-          <t>焦糖扁可颂</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I13" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>+11*</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>舒总</t>
-        </is>
-      </c>
-      <c r="B14" s="17" t="inlineStr">
-        <is>
-          <t>Fountine</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="H14" s="9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="inlineStr">
-        <is>
-          <t>+10*</t>
-        </is>
-      </c>
-      <c r="J14" s="10" t="inlineStr">
-        <is>
-          <t>+10</t>
+          <t>段总</t>
+        </is>
+      </c>
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>生锈的斩牛刀</t>
+        </is>
+      </c>
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H14" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="I14" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="J14" s="18" t="inlineStr">
+        <is>
+          <t>+14*</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>天灵浴血</t>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>飞翔的潼瑜</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -6539,110 +9757,592 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>统皇</t>
+        </is>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>亻沈默</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H16" s="18" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="I16" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>本间芽衣芓</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>焦糖扁可颂</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>生命众筹</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="G19" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="I19" s="9" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>舒总</t>
+        </is>
+      </c>
+      <c r="B20" s="19" t="inlineStr">
+        <is>
+          <t>Fountine</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G20" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>天灵浴血</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>霜满天丶</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H22" s="22" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="I22" s="7" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>蔡圣</t>
         </is>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>亚妮艾丝</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="20" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>亚里欧斯</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="G24" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="I24" s="9" t="inlineStr">
+        <is>
+          <t>+10*</t>
+        </is>
+      </c>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>伊格瑞特</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>+11*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="G25" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H25" s="7" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="I25" s="14" t="inlineStr">
+        <is>
+          <t>+12</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="15" t="inlineStr">
         <is>
           <t>莱恩弗尔特</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C26" s="10" t="inlineStr">
         <is>
           <t>+9</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
         <is>
           <t>+7*</t>
         </is>
       </c>
-      <c r="F17" s="21" t="inlineStr">
+      <c r="F26" s="23" t="inlineStr">
         <is>
           <t>+6</t>
         </is>
       </c>
-      <c r="G17" s="21" t="inlineStr">
+      <c r="G26" s="23" t="inlineStr">
         <is>
           <t>+6</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>萨里西翁</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
+      <c r="H27" s="8" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="inlineStr">
+        <is>
+          <t>+10</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
